--- a/src/app/(main)/issue_list/selects_problems/data/PBL3_4択問題ベースシート .xlsx
+++ b/src/app/(main)/issue_list/selects_problems/data/PBL3_4択問題ベースシート .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="286">
   <si>
     <t>AC受け入れ基準</t>
   </si>
@@ -139,7 +139,7 @@
     <t>select-problem-1.png</t>
   </si>
   <si>
-    <t>バイトの構成</t>
+    <t>データの基本単位</t>
   </si>
   <si>
     <t>2. 情報の単位において、**8ビット**をひとまとまりとして扱う際の名称は何ですか。</t>
@@ -160,7 +160,7 @@
     <t>select-problem-2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">データ容量の単位 </t>
+    <t>データ容量の接頭語</t>
   </si>
   <si>
     <t>3. データ容量の単位で、**約1,000バイト（正確には1024バイト）**を表す接頭語は何ですか。</t>
@@ -178,7 +178,7 @@
     <t>select-problem-3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">文字コード </t>
+    <t>文字の符号化の仕組み</t>
   </si>
   <si>
     <t>4. 日本語の文字（漢字、ひらがな、カタカナなど）をコンピュータで扱うために、それぞれの文字に割り当てられている固有の番号や符号化の仕組みを何と呼びますか。</t>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>select-problem-4.png</t>
+  </si>
+  <si>
+    <t>コンピュータの主要基板</t>
   </si>
   <si>
     <t>5. コンピュータの主要な部品が搭載されており、それらを接続するための回路が組み込まれた基板を何と呼びますか。</t>
@@ -215,7 +218,7 @@
     <t>select-problem-5.png</t>
   </si>
   <si>
-    <t>コンピュータの内部</t>
+    <t>データ信号の通り道</t>
   </si>
   <si>
     <t>6. コンピュータの内部で、CPUとメモリ、その他の周辺機器の間でデータをやり取りするための信号の通り道を何と呼びますか。</t>
@@ -233,7 +236,7 @@
     <t>select-problem-6.png</t>
   </si>
   <si>
-    <t>読み出し専用メモリ</t>
+    <t>読み出し専用のメモリ</t>
   </si>
   <si>
     <t>7. 電源を切ってもデータが消えることなく、**読み出し専用**として利用されることが多いメモリを何と呼びますか。</t>
@@ -251,7 +254,7 @@
     <t>select-problem-7.png</t>
   </si>
   <si>
-    <t>キャッシュメモリ</t>
+    <t>CPUの高速一時記憶</t>
   </si>
   <si>
     <t>8. CPUとメインメモリ（RAM）の間にあり、CPUが頻繁に使うデータを一時的に保存して、処理速度を向上させるための高速で小容量の記憶領域を何と呼びますか。</t>
@@ -269,7 +272,7 @@
     <t>select-problem-8.png</t>
   </si>
   <si>
-    <t>アプリケーションソフトウェア</t>
+    <t>特定の作業用ソフトウェア</t>
   </si>
   <si>
     <t>9. コンピュータにインストールされ、特定の作業（文書作成、表計算、ゲームなど）を実行するために設計されたソフトウェアを何と呼びますか。</t>
@@ -287,7 +290,7 @@
     <t>select-problem-9.png</t>
   </si>
   <si>
-    <t xml:space="preserve">プログラミング言語 </t>
+    <t>コンピュータへの命令言語</t>
   </si>
   <si>
     <t>10. コンピュータに命令を与えるために人間が使用する、特定の文法を持った言語（例：Python、Java）を何と呼びますか。</t>
@@ -305,7 +308,7 @@
     <t>select-problem-10.png</t>
   </si>
   <si>
-    <t>デバイスドライバ</t>
+    <t>ハードウェアの制御ソフトウェア</t>
   </si>
   <si>
     <t>11. プリンタやマウスなどの**ハードウェアをOSが利用できるようにする**ための、仲介役となる制御用のソフトウェアを何と呼びますか。</t>
@@ -326,7 +329,7 @@
     <t>select-problem-11.png</t>
   </si>
   <si>
-    <t>インターネット</t>
+    <t>世界規模の通信網</t>
   </si>
   <si>
     <t>12. 世界中のコンピュータやネットワーク機器が相互に接続され、情報をやり取りできる巨大なネットワークを何と呼びますか。</t>
@@ -344,7 +347,7 @@
     <t>select-problem-12.png</t>
   </si>
   <si>
-    <t>ネットワーク</t>
+    <t>ネットワーク上の住所</t>
   </si>
   <si>
     <t>13. ネットワークに接続された個々のコンピュータや通信機器を識別するために割り当てられる、住所のような役割を持つ番号を何と呼びますか。</t>
@@ -362,7 +365,7 @@
     <t>select-problem-13.png</t>
   </si>
   <si>
-    <t>LAN（ローカルエリアネットワーク）</t>
+    <t>狭い範囲のネットワーク</t>
   </si>
   <si>
     <t>14. 家庭やオフィスなど、比較的狭い範囲（数メートルから数百メートル程度）で構築されるコンピュータネットワークを何と呼びますか。</t>
@@ -381,8 +384,7 @@
     <t>select-problem-14.png</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-Wi-Fi（無線通信）</t>
+    <t>無線の接続技術</t>
   </si>
   <si>
     <t>15. 無線通信によってインターネットやネットワークに接続するための技術を何と呼びますか。</t>
@@ -400,7 +402,7 @@
     <t>select-problem-15.png</t>
   </si>
   <si>
-    <t>サーバの役割</t>
+    <t>サービス提供側の機器</t>
   </si>
   <si>
     <t>16. ネットワーク上で、Webページのデータや電子メールなどの情報やサービスを提供する側のコンピュータを何と呼びますか。</t>
@@ -418,7 +420,7 @@
     <t>select-problem-16.png</t>
   </si>
   <si>
-    <t>クライアントの役割</t>
+    <t>サービス利用側の機器</t>
   </si>
   <si>
     <t>17. ネットワーク上で、サーバから提供される情報やサービスを利用する側のコンピュータ（例：あなたのPCやスマートフォン）を何と呼びますか。</t>
@@ -436,7 +438,7 @@
     <t>select-problem-17.png</t>
   </si>
   <si>
-    <t>ルータの役割</t>
+    <t>データの交通整理機器</t>
   </si>
   <si>
     <t>18. 異なるネットワーク同士を接続し、データの交通整理を行い、最適な経路を選んでデータを転送する機能を持つ機器は何ですか。</t>
@@ -454,7 +456,7 @@
     <t>select-problem-18.png</t>
   </si>
   <si>
-    <t>ポート（接続口）</t>
+    <t>外部機器との接続口</t>
   </si>
   <si>
     <t>19. コンピュータと外部機器を接続するための接続口（例：USB、HDMI）を何と呼びますか。</t>
@@ -466,7 +468,7 @@
     <t>select-problem-19.png</t>
   </si>
   <si>
-    <t>プロトコル（通信規約）</t>
+    <t>通信の約束事</t>
   </si>
   <si>
     <t>20. ネットワークにおいて、通信を行うための手順や規格など、あらかじめ決められた約束事を何と呼びますか。</t>
@@ -484,7 +486,7 @@
     <t>select-problem-20.png</t>
   </si>
   <si>
-    <t>ハードウェアの役割</t>
+    <t>画像処理専門の部品</t>
   </si>
   <si>
     <t>21. コンピュータに搭載されたハードウェアの中で、特に画像処理や3Dグラフィックスの専門的な計算を高速に行うための部品は何ですか。</t>
@@ -502,7 +504,7 @@
     <t>select-problem-21.png</t>
   </si>
   <si>
-    <t xml:space="preserve">CPUの処理能力 </t>
+    <t>CPUの処理速度の単位</t>
   </si>
   <si>
     <t>22. コンピュータの処理能力を表す指標の一つで、CPUが1秒間に処理できる命令の回数を表す単位は何ですか。</t>
@@ -520,7 +522,7 @@
     <t>select-problem-22.png</t>
   </si>
   <si>
-    <t>ハードウェアとは</t>
+    <t>物理的な部品の総称</t>
   </si>
   <si>
     <t>23. コンピュータの物理的な実体であるキーボードやディスプレイ、CPUなどの部品を総称して何と呼びますか。</t>
@@ -538,8 +540,7 @@
     <t>select-problem-23.png</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-ストレージ（補助記憶装置） </t>
+    <t>データを長期保存する装置</t>
   </si>
   <si>
     <t>24. データを長期的に保存するための装置で、HDD（ハードディスクドライブ）やSSD（ソリッドステートドライブ）をまとめて何と呼びますか。</t>
@@ -557,7 +558,7 @@
     <t>select-problem-24.png</t>
   </si>
   <si>
-    <t xml:space="preserve">ソフトウェアの種類 </t>
+    <t>特定の作業用ソフトウェアの分類</t>
   </si>
   <si>
     <t>25. コンピュータに搭載されているプログラムやデータを、基本的な動作を担うOSと、特定の作業を行うアプリケーションに分類したとき、後者の種類に属するのはどれですか。</t>
@@ -575,7 +576,7 @@
     <t>select-problem-25.png</t>
   </si>
   <si>
-    <t>プリンタの役割</t>
+    <t>紙媒体への出力装置</t>
   </si>
   <si>
     <t>26. 紙に文字や画像、図形などの情報を印刷して、外部に出力するための装置は何ですか。</t>
@@ -593,7 +594,7 @@
     <t>select-problem-26.png</t>
   </si>
   <si>
-    <t>ディスプレイの役割</t>
+    <t>画面表示装置</t>
   </si>
   <si>
     <t>27. コンピュータの画面に、文字や画像などの情報を表示する装置は何ですか。</t>
@@ -611,7 +612,7 @@
     <t>select-problem-27.png</t>
   </si>
   <si>
-    <t>スキャナの役割</t>
+    <t>紙情報を読み取る装置</t>
   </si>
   <si>
     <t>28. 紙の文書や写真などを読み取り、画像情報としてコンピュータに取り込むための装置は何ですか。</t>
@@ -629,7 +630,7 @@
     <t>select-problem-28.png</t>
   </si>
   <si>
-    <t>マウスの役割</t>
+    <t>カーソル操作の入力装置</t>
   </si>
   <si>
     <t>29. 画面上のカーソルを移動させたり、クリック操作を行ったりして、コンピュータに指示を与えるための入力装置は何ですか。</t>
@@ -647,7 +648,7 @@
     <t>select-problem-29.png</t>
   </si>
   <si>
-    <t>タッチパネル</t>
+    <t>入出力両用の装置</t>
   </si>
   <si>
     <t>30. 画面を指で触れることで、入力（指示）と出力（表示）の両方の機能を持つ装置の例は何ですか。</t>
@@ -665,7 +666,7 @@
     <t>select-problem-30.png</t>
   </si>
   <si>
-    <t>OSの役割</t>
+    <t>Webページ閲覧ソフト</t>
   </si>
   <si>
     <t>31. インターネット上のウェブサイトを表示するために、PCやスマートフォンで利用するソフトウェアを何と呼びますか。</t>
@@ -683,7 +684,7 @@
     <t>select-problem-31.png</t>
   </si>
   <si>
-    <t>ファイルの拡張子</t>
+    <t>Web上の場所の文字列</t>
   </si>
   <si>
     <t>32. インターネット上のウェブページやファイルの**場所を示す**ために使われる、住所のような文字列（例：https://www.example.com/）を何と呼びますか。</t>
@@ -701,7 +702,7 @@
     <t>select-problem-32.png</t>
   </si>
   <si>
-    <t>ファイルの圧縮</t>
+    <t>別のページへの移動機能</t>
   </si>
   <si>
     <t>33. ウェブページ上で、クリックすると別のウェブページやファイルに移動できるように設定された部分（文字や画像）を何と呼びますか。</t>
@@ -719,7 +720,7 @@
     <t>select-problem-33.png</t>
   </si>
   <si>
-    <t>ファイルのコピーと移動</t>
+    <t>インターネットでの手紙</t>
   </si>
   <si>
     <t>34. インターネット上で、電子的な手紙を送受信するためのサービスやシステムを何と呼びますか。</t>
@@ -737,7 +738,7 @@
     <t>select-problem-34.png</t>
   </si>
   <si>
-    <t>ごみ箱の機能</t>
+    <t>Web情報検索サービス</t>
   </si>
   <si>
     <t>35. インターネット上の膨大な情報の中から、特定のキーワードに関連するウェブページやファイルを探し出すためのサービスは何ですか。</t>
@@ -755,7 +756,7 @@
     <t>select-problem-35.png</t>
   </si>
   <si>
-    <t xml:space="preserve">ショートカットアイコン </t>
+    <t>命令の順序立てた集合</t>
   </si>
   <si>
     <t>36. コンピュータに実行させる命令を順序立てて書き、作成された命令群を何と呼びますか。</t>
@@ -773,7 +774,7 @@
     <t>select-problem-36.png</t>
   </si>
   <si>
-    <t>フォルダの役割</t>
+    <t>プログラムの誤りや欠陥</t>
   </si>
   <si>
     <t>37. プログラムの設計ミスや記述ミスなどによって、意図しない動作を引き起こす誤りや欠陥のことを、虫を意味する英語で何と呼びますか。</t>
@@ -791,7 +792,7 @@
     <t>select-problem-37.png</t>
   </si>
   <si>
-    <t>検索機能</t>
+    <t>誤りを見つけ修正する作業</t>
   </si>
   <si>
     <t>38. プログラムの誤り（バグ）を見つけ出し、修正する作業を何と呼びますか。</t>
@@ -809,7 +810,7 @@
     <t>select-problem-38.png</t>
   </si>
   <si>
-    <t>クリップボード</t>
+    <t>操作画面の仕組み全体</t>
   </si>
   <si>
     <t>39. ユーザーがコンピュータやシステムを操作するための画面のデザインや、操作方法などの仕組み全体を何と呼びますか。</t>
@@ -827,7 +828,7 @@
     <t>select-problem-39.png</t>
   </si>
   <si>
-    <t>上書き保存と名前を付けて保存</t>
+    <t>プログラムの機械語への変換</t>
   </si>
   <si>
     <t>40. プログラミング言語で書かれた人間の読める形式のプログラム（ソースコード）を、コンピュータが直接実行できる形式（機械語）に変換することを何と呼びますか。</t>
@@ -845,7 +846,7 @@
     <t>select-problem-40.png</t>
   </si>
   <si>
-    <t>パスワード</t>
+    <t>本人確認のための秘密の文字列</t>
   </si>
   <si>
     <t>41. コンピュータやシステムを利用する際に、IDと組み合わせて、**利用者が本人であることを確認する**ために設定する文字列を何と呼びますか。</t>
@@ -863,7 +864,7 @@
     <t>select-problem-41.png</t>
   </si>
   <si>
-    <t>コンピュータウイルス</t>
+    <t>悪意のある不正プログラム</t>
   </si>
   <si>
     <t>42. 悪意のある第三者によって作成され、コンピュータに侵入してデータを盗んだり、システムを破壊したりする不正なプログラムを何と呼びますか。</t>
@@ -881,7 +882,7 @@
     <t>select-problem-42.png</t>
   </si>
   <si>
-    <t>情報セキュリティ</t>
+    <t>安全を守るための対策</t>
   </si>
   <si>
     <t>43. 情報システムの機密性、完全性、可用性を維持するために、データの改ざんや盗難を防ぎ、安全に保つための対策全体を何と呼びますか。</t>
@@ -899,7 +900,7 @@
     <t>select-problem-43.png</t>
   </si>
   <si>
-    <t>著作権</t>
+    <t>創作物を守る権利</t>
   </si>
   <si>
     <t>44. 小説、音楽、絵画、プログラムなど、作者が創作した表現物を保護し、無断利用を禁止する権利を何と呼びますか。</t>
@@ -917,7 +918,7 @@
     <t>select-problem-44.png</t>
   </si>
   <si>
-    <t>認証（Authentication）</t>
+    <t>本人確認の行為</t>
   </si>
   <si>
     <t>45. IDとパスワードの入力などにより、システムが利用者を**本人であると確認する**行為を何と呼びますか。</t>
@@ -935,7 +936,7 @@
     <t>select-problem-45.png</t>
   </si>
   <si>
-    <t>システムソフトウェア</t>
+    <t>基本的な動作を担うソフトウェア</t>
   </si>
   <si>
     <t>46. コンピュータに搭載されているプログラムやデータを、**コンピュータの基本的な動作を担う**OSやドライバなどの総称は何ですか。</t>
@@ -953,7 +954,7 @@
     <t>select-problem-46.png</t>
   </si>
   <si>
-    <t>ファームウェアの役割</t>
+    <t>機器に組み込まれた制御プログラム</t>
   </si>
   <si>
     <t>47. プリンタやルータなど、電子機器自体に組み込まれており、その機器の基本的な動作を制御するソフトウェアを何と呼びますか。</t>
@@ -971,7 +972,7 @@
     <t>select-problem-47.png</t>
   </si>
   <si>
-    <t>インタープリタとコンパイラ</t>
+    <t>プログラムの逐次実行方式</t>
   </si>
   <si>
     <t>48. プログラミング言語で書かれたプログラムを、1行ずつ解釈しながら実行していく方式を何と呼びますか。</t>
@@ -989,7 +990,7 @@
     <t>select-problem-48.png</t>
   </si>
   <si>
-    <t>アプリケーション層プロトコル</t>
+    <t>Webサービスなどの約束事の総称</t>
   </si>
   <si>
     <t>49. Webサイトの閲覧、電子メール、ファイル転送など、ネットワーク上で特定の目的を果たすための約束事（プロトコル）の総称は何ですか。</t>
@@ -1007,7 +1008,7 @@
     <t>select-problem-49.png</t>
   </si>
   <si>
-    <t>進数（二進法）</t>
+    <t>2つの状態による情報表現</t>
   </si>
   <si>
     <t>50. コンピュータが情報を表現するために、電気信号のONの状態を『1』、OFFの状態を『0』に対応させているように、2つの状態のみで情報を表現する方式を何と呼びますか。</t>
@@ -1229,7 +1230,7 @@
     <xdr:ext cx="12563475" cy="1743075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image31.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1262,7 +1263,7 @@
     <xdr:ext cx="4714875" cy="3419475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image18.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1290,7 +1291,7 @@
     <xdr:ext cx="4733925" cy="3228975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1318,7 +1319,7 @@
     <xdr:ext cx="4724400" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1346,7 +1347,7 @@
     <xdr:ext cx="4724400" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image16.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1374,7 +1375,7 @@
     <xdr:ext cx="4724400" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1402,7 +1403,7 @@
     <xdr:ext cx="4714875" cy="3009900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image25.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1430,7 +1431,7 @@
     <xdr:ext cx="4714875" cy="3295650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1458,7 +1459,7 @@
     <xdr:ext cx="4714875" cy="3419475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image12.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1486,7 +1487,7 @@
     <xdr:ext cx="4714875" cy="3419475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image49.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image24.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1514,7 +1515,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image40.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image14.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1570,7 +1571,7 @@
     <xdr:ext cx="4714875" cy="3228975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image47.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1598,7 +1599,7 @@
     <xdr:ext cx="4714875" cy="3486150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image29.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1654,7 +1655,7 @@
     <xdr:ext cx="4714875" cy="3962400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image7.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1682,7 +1683,7 @@
     <xdr:ext cx="4714875" cy="3790950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image51.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1710,7 +1711,7 @@
     <xdr:ext cx="4714875" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image8.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1738,7 +1739,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1766,7 +1767,7 @@
     <xdr:ext cx="4714875" cy="3714750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image26.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1794,7 +1795,7 @@
     <xdr:ext cx="4714875" cy="3162300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image11.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1822,7 +1823,7 @@
     <xdr:ext cx="4714875" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1850,7 +1851,7 @@
     <xdr:ext cx="4714875" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image13.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1878,7 +1879,7 @@
     <xdr:ext cx="4714875" cy="3895725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image15.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1906,7 +1907,7 @@
     <xdr:ext cx="4714875" cy="3419475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image20.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1934,7 +1935,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image42.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1962,7 +1963,7 @@
     <xdr:ext cx="4714875" cy="2943225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image17.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1990,7 +1991,7 @@
     <xdr:ext cx="4724400" cy="3295650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image35.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image23.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2018,7 +2019,7 @@
     <xdr:ext cx="4714875" cy="2876550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image21.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2046,7 +2047,7 @@
     <xdr:ext cx="4714875" cy="2943225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image50.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2074,7 +2075,7 @@
     <xdr:ext cx="4733925" cy="3543300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image33.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image39.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2102,7 +2103,7 @@
     <xdr:ext cx="4733925" cy="3228975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image36.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image19.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2130,7 +2131,7 @@
     <xdr:ext cx="4714875" cy="2943225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image32.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2158,7 +2159,7 @@
     <xdr:ext cx="4724400" cy="3295650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image41.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2186,7 +2187,7 @@
     <xdr:ext cx="4733925" cy="2514600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image22.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2214,7 +2215,7 @@
     <xdr:ext cx="4724400" cy="3057525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image27.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2242,7 +2243,7 @@
     <xdr:ext cx="4714875" cy="3009900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image43.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image34.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2270,7 +2271,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image30.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2298,7 +2299,7 @@
     <xdr:ext cx="4714875" cy="2876550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image45.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image49.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2326,7 +2327,7 @@
     <xdr:ext cx="4714875" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image44.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image28.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2354,7 +2355,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image33.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2382,7 +2383,7 @@
     <xdr:ext cx="4714875" cy="3295650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image35.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2410,7 +2411,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image50.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image47.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2438,7 +2439,7 @@
     <xdr:ext cx="4714875" cy="3419475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image34.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image40.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2466,7 +2467,7 @@
     <xdr:ext cx="4714875" cy="3362325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image39.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image37.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2494,7 +2495,7 @@
     <xdr:ext cx="4714875" cy="3486150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image46.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image38.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2522,7 +2523,7 @@
     <xdr:ext cx="4714875" cy="3228975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image38.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image44.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2550,7 +2551,7 @@
     <xdr:ext cx="4714875" cy="2876550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image37.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image36.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2578,7 +2579,7 @@
     <xdr:ext cx="4714875" cy="3095625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image42.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image43.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2606,7 +2607,7 @@
     <xdr:ext cx="4714875" cy="3228975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image41.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image46.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2634,7 +2635,7 @@
     <xdr:ext cx="4714875" cy="3486150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image51.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image45.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3161,16 +3162,16 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>54</v>
@@ -3190,7 +3191,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="266.25" customHeight="1">
@@ -3198,16 +3199,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>36</v>
@@ -3227,7 +3228,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="243.75" customHeight="1">
@@ -3235,16 +3236,16 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>36</v>
@@ -3264,7 +3265,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="264.75" customHeight="1">
@@ -3272,16 +3273,16 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>36</v>
@@ -3301,7 +3302,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="276.75" customHeight="1">
@@ -3309,16 +3310,16 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>54</v>
@@ -3338,7 +3339,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="272.25" customHeight="1">
@@ -3346,16 +3347,16 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>36</v>
@@ -3375,7 +3376,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="246.75" customHeight="1">
@@ -3383,19 +3384,19 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="3">
         <v>11.0</v>
@@ -3412,7 +3413,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="263.25" customHeight="1">
@@ -3420,16 +3421,16 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>54</v>
@@ -3449,7 +3450,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" ht="261.0" customHeight="1">
@@ -3457,19 +3458,19 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3">
         <v>11.0</v>
@@ -3486,7 +3487,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="278.25" customHeight="1">
@@ -3494,16 +3495,16 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>54</v>
@@ -3523,7 +3524,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" ht="267.75" customHeight="1">
@@ -3531,16 +3532,16 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>36</v>
@@ -3560,7 +3561,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" ht="315.0" customHeight="1">
@@ -3568,16 +3569,16 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>43</v>
@@ -3597,7 +3598,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" ht="303.75" customHeight="1">
@@ -3605,16 +3606,16 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>54</v>
@@ -3634,7 +3635,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" ht="267.0" customHeight="1">
@@ -3642,16 +3643,16 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>43</v>
@@ -3671,7 +3672,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="246.75" customHeight="1">
@@ -3679,16 +3680,16 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>43</v>
@@ -3708,7 +3709,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" ht="294.75" customHeight="1">
@@ -3716,16 +3717,16 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>36</v>
@@ -3745,7 +3746,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" ht="255.0" customHeight="1">
@@ -3753,16 +3754,16 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>54</v>
@@ -3780,7 +3781,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" ht="268.5" customHeight="1">
@@ -3788,16 +3789,16 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>43</v>
@@ -3815,7 +3816,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" ht="268.5" customHeight="1">
@@ -3823,16 +3824,16 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>36</v>
@@ -3850,7 +3851,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="322.5" customHeight="1">
@@ -3858,16 +3859,16 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>36</v>
@@ -3885,7 +3886,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" ht="271.5" customHeight="1">
@@ -3893,16 +3894,16 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>36</v>
@@ -3920,7 +3921,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" ht="248.25" customHeight="1">
@@ -3928,16 +3929,16 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>36</v>
@@ -3955,7 +3956,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" ht="237.75" customHeight="1">
@@ -3963,16 +3964,16 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>36</v>
@@ -3990,7 +3991,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" ht="264.75" customHeight="1">
@@ -3998,16 +3999,16 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>36</v>
@@ -4025,7 +4026,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" ht="229.5" customHeight="1">
@@ -4033,16 +4034,16 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>36</v>
@@ -4060,7 +4061,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" ht="282.0" customHeight="1">
@@ -4068,16 +4069,16 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>54</v>
@@ -4095,7 +4096,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" ht="257.25" customHeight="1">
@@ -4103,19 +4104,19 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G33" s="3">
         <v>11.0</v>
@@ -4130,7 +4131,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" ht="237.0" customHeight="1">
@@ -4138,19 +4139,19 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G34" s="3">
         <v>11.0</v>
@@ -4165,7 +4166,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" ht="262.5" customHeight="1">
@@ -4173,16 +4174,16 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>54</v>
@@ -4200,7 +4201,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" ht="202.5" customHeight="1">
@@ -4208,19 +4209,19 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G36" s="3">
         <v>11.0</v>
@@ -4235,7 +4236,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" ht="246.75" customHeight="1">
@@ -4243,19 +4244,19 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G37" s="3">
         <v>11.0</v>
@@ -4270,7 +4271,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" ht="243.75" customHeight="1">
@@ -4278,16 +4279,16 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>54</v>
@@ -4305,7 +4306,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" ht="246.0" customHeight="1">
@@ -4313,16 +4314,16 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>36</v>
@@ -4340,7 +4341,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" ht="228.75" customHeight="1">
@@ -4348,19 +4349,19 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" s="3">
         <v>11.0</v>
@@ -4375,7 +4376,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" ht="270.0" customHeight="1">
@@ -4383,16 +4384,16 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>43</v>
@@ -4410,7 +4411,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" ht="251.25" customHeight="1">
@@ -4418,16 +4419,16 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>43</v>
@@ -4445,7 +4446,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" ht="265.5" customHeight="1">
@@ -4453,16 +4454,16 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>36</v>
@@ -4480,7 +4481,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" ht="248.25" customHeight="1">
@@ -4488,16 +4489,16 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>36</v>
@@ -4515,7 +4516,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" ht="273.75" customHeight="1">
@@ -4523,16 +4524,16 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>43</v>
@@ -4550,7 +4551,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" ht="267.75" customHeight="1">
@@ -4558,16 +4559,16 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>36</v>
@@ -4585,7 +4586,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="277.5" customHeight="1">
@@ -4593,16 +4594,16 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>36</v>
@@ -4620,7 +4621,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" ht="260.25" customHeight="1">
@@ -4628,16 +4629,16 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>36</v>
@@ -4655,7 +4656,7 @@
       <c r="M48" s="16"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" ht="231.75" customHeight="1">
@@ -4663,16 +4664,16 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>43</v>
@@ -4690,7 +4691,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" ht="256.5" customHeight="1">
@@ -4698,16 +4699,16 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>54</v>
@@ -4725,7 +4726,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" ht="269.25" customHeight="1">
@@ -4733,16 +4734,16 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>54</v>
@@ -4758,7 +4759,7 @@
       </c>
       <c r="L51" s="3"/>
       <c r="O51" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" ht="280.5" customHeight="1">
@@ -4766,19 +4767,19 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G52" s="3">
         <v>11.0</v>
@@ -4791,7 +4792,7 @@
       </c>
       <c r="L52" s="3"/>
       <c r="O52" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" ht="87.75" customHeight="1">
